--- a/chat_robot/ext_plugins/knowledge/knowledge_data.xlsx
+++ b/chat_robot/ext_plugins/knowledge/knowledge_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\opensource\chat_robot\chat_robot\ext_plugins\knowledge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C57B56-055E-412E-817F-8C1BF5993FF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228BB097-EABF-4A2A-850E-26828EA55B92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KnowledgImages" sheetId="1" r:id="rId1"/>
@@ -309,7 +309,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="150">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -926,6 +926,10 @@
   </si>
   <si>
     <t>翡翠概述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thumbnail</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1016,10 +1020,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1285,20 +1285,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5.3984375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="31.53125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.265625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="31.53125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.265625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1306,171 +1306,174 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1535,7 +1538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45DE874A-7198-4A9E-8DA6-101902109BC6}">
   <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/chat_robot/ext_plugins/knowledge/knowledge_data.xlsx
+++ b/chat_robot/ext_plugins/knowledge/knowledge_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\opensource\chat_robot\chat_robot\ext_plugins\knowledge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228BB097-EABF-4A2A-850E-26828EA55B92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7099AE58-5C87-4131-BEE8-763492158F7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KnowledgImages" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="options" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">KnowledgeChapters!$A$1:$P$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">KnowledgeChapters!$A$1:$Q$49</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -194,7 +194,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{5FBCAB68-921A-40D5-9381-96B1B54AE8B4}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{5FBCAB68-921A-40D5-9381-96B1B54AE8B4}">
       <text>
         <r>
           <rPr>
@@ -226,7 +226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{9A11E91B-738A-453C-8850-674360C804FE}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{9A11E91B-738A-453C-8850-674360C804FE}">
       <text>
         <r>
           <rPr>
@@ -252,7 +252,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{2C7931DF-55F7-47BF-8582-41DF22BD8C2D}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{2C7931DF-55F7-47BF-8582-41DF22BD8C2D}">
       <text>
         <r>
           <rPr>
@@ -278,7 +278,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{661F6454-AAE3-471C-9E3D-32F92667B14A}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{661F6454-AAE3-471C-9E3D-32F92667B14A}">
       <text>
         <r>
           <rPr>
@@ -309,7 +309,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="157">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -930,6 +930,34 @@
   </si>
   <si>
     <t>thumbnail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>random_tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>random_tag_desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不随机获取下一个章节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>book</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前书本范围获取下一章节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前目录范围获取下一随机章节</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1287,7 +1315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -1489,8 +1517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0575242F-C91E-477C-B36B-14039DA5253F}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1536,13 +1564,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45DE874A-7198-4A9E-8DA6-101902109BC6}">
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomRight" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1554,16 +1582,16 @@
     <col min="5" max="5" width="13.06640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="11.53125" style="2" customWidth="1"/>
     <col min="7" max="7" width="11.1328125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="52.53125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.3984375" style="2" customWidth="1"/>
-    <col min="12" max="14" width="23.3984375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="17.3984375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="9.06640625" style="2"/>
+    <col min="8" max="9" width="9" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="52.53125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.3984375" style="2" customWidth="1"/>
+    <col min="13" max="15" width="23.3984375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="17.3984375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1589,28 +1617,31 @@
         <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1626,11 +1657,11 @@
       <c r="H2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="111" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" ht="111" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1646,30 +1677,30 @@
       <c r="H3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="2">
-        <v>1</v>
-      </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="2">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="2" t="str">
+      <c r="P3" s="2" t="str">
         <f>VLOOKUP(E3,KnowledgeBooks!A:B,2,FALSE)</f>
         <v>百科:翡翠</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1685,11 +1716,11 @@
       <c r="H4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="83.25" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" ht="83.25" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1705,20 +1736,20 @@
       <c r="H5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="55.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" ht="55.5" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1734,14 +1765,14 @@
       <c r="H6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1757,14 +1788,14 @@
       <c r="H7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1780,14 +1811,14 @@
       <c r="H8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="83.25" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" ht="83.25" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1803,14 +1834,14 @@
       <c r="H9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="83.25" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" ht="83.25" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1826,14 +1857,14 @@
       <c r="H10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="69.400000000000006" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" ht="69.400000000000006" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1849,14 +1880,14 @@
       <c r="H11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1875,14 +1906,14 @@
       <c r="H12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="69.400000000000006" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" ht="69.400000000000006" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1898,20 +1929,20 @@
       <c r="H13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K13" s="2">
+      <c r="L13" s="2">
         <v>2</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="M13" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="97.15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" ht="97.15" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1927,20 +1958,20 @@
       <c r="H14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K14" s="2">
+      <c r="L14" s="2">
         <v>3</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="M14" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="83.25" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" ht="83.25" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -1956,20 +1987,20 @@
       <c r="H15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="K15" s="2">
+      <c r="L15" s="2">
         <v>4</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="M15" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -1985,14 +2016,14 @@
       <c r="H16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:16" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -2008,14 +2039,14 @@
       <c r="H17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="K17" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:16" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -2031,20 +2062,20 @@
       <c r="H18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="K18" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K18" s="2">
+      <c r="L18" s="2">
         <v>5</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="M18" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:16" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -2060,14 +2091,14 @@
       <c r="H19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="J19" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="K19" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:16" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -2083,14 +2114,14 @@
       <c r="H20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="J20" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="K20" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:16" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -2106,14 +2137,14 @@
       <c r="H21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="K21" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:16" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -2129,14 +2160,14 @@
       <c r="H22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="J22" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="K22" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -2155,11 +2186,11 @@
       <c r="H23" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="J23" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="166.5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:16" ht="166.5" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -2175,17 +2206,17 @@
       <c r="H24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="J24" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="K24" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K24" s="2">
+      <c r="L24" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="97.15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:16" ht="97.15" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -2201,21 +2232,21 @@
       <c r="H25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="J25" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="K25" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M25" s="2" t="s">
+      <c r="N25" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O25" s="2" t="str">
+      <c r="P25" s="2" t="str">
         <f>VLOOKUP(E25,KnowledgeBooks!A:B,2,FALSE)</f>
         <v>百科:翡翠</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -2234,11 +2265,11 @@
       <c r="H26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="J26" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="124.9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:16" ht="124.9" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -2254,20 +2285,20 @@
       <c r="H27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="J27" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="K27" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="K27" s="2">
+      <c r="L27" s="2">
         <v>7</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="M27" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="69.400000000000006" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:16" ht="69.400000000000006" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -2283,20 +2314,20 @@
       <c r="H28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="J28" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="K28" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="K28" s="2">
+      <c r="L28" s="2">
         <v>8</v>
       </c>
-      <c r="L28" s="2" t="s">
+      <c r="M28" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="83.25" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:16" ht="83.25" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -2312,20 +2343,20 @@
       <c r="H29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="J29" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="K29" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="K29" s="2">
+      <c r="L29" s="2">
         <v>9</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="M29" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -2341,20 +2372,20 @@
       <c r="H30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="J30" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="K30" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="K30" s="2">
+      <c r="L30" s="2">
         <v>10</v>
       </c>
-      <c r="L30" s="2" t="s">
+      <c r="M30" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="111" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:16" ht="111" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -2370,20 +2401,20 @@
       <c r="H31" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="J31" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="K31" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="K31" s="2">
-        <v>11</v>
-      </c>
-      <c r="L31" s="2" t="s">
+      <c r="L31" s="2">
+        <v>11</v>
+      </c>
+      <c r="M31" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="55.5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:16" ht="55.5" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -2399,17 +2430,17 @@
       <c r="H32" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="J32" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="K32" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="K32" s="2">
+      <c r="L32" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="166.5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12" ht="166.5" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -2425,17 +2456,17 @@
       <c r="H33" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="J33" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="K33" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="K33" s="2">
+      <c r="L33" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="55.5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12" ht="55.5" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -2451,17 +2482,17 @@
       <c r="H34" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="J34" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="K34" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="K34" s="2">
+      <c r="L34" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="124.9" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12" ht="124.9" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -2477,17 +2508,17 @@
       <c r="H35" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="J35" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="K35" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="K35" s="2">
+      <c r="L35" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="111" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12" ht="111" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -2503,14 +2534,14 @@
       <c r="H36" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="J36" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="K36" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="83.25" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12" ht="83.25" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -2526,14 +2557,14 @@
       <c r="H37" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="J37" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="K37" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="55.5" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12" ht="55.5" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -2549,14 +2580,14 @@
       <c r="H38" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="J38" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="K38" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -2572,14 +2603,14 @@
       <c r="H39" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="J39" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="K39" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="69.400000000000006" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:12" ht="69.400000000000006" x14ac:dyDescent="0.4">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -2595,14 +2626,14 @@
       <c r="H40" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="J40" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="K40" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="124.9" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:12" ht="124.9" x14ac:dyDescent="0.4">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -2618,14 +2649,14 @@
       <c r="H41" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="J41" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="J41" s="2" t="s">
+      <c r="K41" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="111" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12" ht="111" x14ac:dyDescent="0.4">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -2641,14 +2672,14 @@
       <c r="H42" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="J42" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="J42" s="2" t="s">
+      <c r="K42" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:12" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -2664,14 +2695,14 @@
       <c r="H43" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I43" s="2" t="s">
+      <c r="J43" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="J43" s="2" t="s">
+      <c r="K43" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -2687,14 +2718,14 @@
       <c r="H44" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="J44" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="J44" s="2" t="s">
+      <c r="K44" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -2710,14 +2741,14 @@
       <c r="H45" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I45" s="2" t="s">
+      <c r="J45" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="J45" s="2" t="s">
+      <c r="K45" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:12" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -2733,14 +2764,14 @@
       <c r="H46" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="J46" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="J46" s="2" t="s">
+      <c r="K46" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:12" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A47" s="2">
         <v>45</v>
       </c>
@@ -2756,14 +2787,14 @@
       <c r="H47" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I47" s="2" t="s">
+      <c r="J47" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="J47" s="2" t="s">
+      <c r="K47" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="55.5" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:12" ht="55.5" x14ac:dyDescent="0.4">
       <c r="A48" s="2">
         <v>46</v>
       </c>
@@ -2779,14 +2810,14 @@
       <c r="H48" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I48" s="2" t="s">
+      <c r="J48" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="J48" s="2" t="s">
+      <c r="K48" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="55.5" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:11" ht="55.5" x14ac:dyDescent="0.4">
       <c r="A49" s="2">
         <v>47</v>
       </c>
@@ -2802,27 +2833,33 @@
       <c r="H49" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I49" s="2" t="s">
+      <c r="J49" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="J49" s="2" t="s">
+      <c r="K49" s="2" t="s">
         <v>146</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P49" xr:uid="{D1E87546-727A-4FAD-BCA6-F0BE763EE419}"/>
+  <autoFilter ref="A1:Q49" xr:uid="{D1E87546-727A-4FAD-BCA6-F0BE763EE419}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6680FDFE-5502-4777-A33C-82C330280A00}">
           <x14:formula1>
             <xm:f>options!$A$2:$A$7</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6A55EBE4-73D2-468A-B53C-C442CF8E3EA7}">
+          <x14:formula1>
+            <xm:f>options!$C$2:$C$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>I2:I1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2832,47 +2869,72 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC54B7AF-532E-4851-BAA5-2C2867A5B3DA}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="12.1328125" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>18</v>
       </c>
       <c r="B1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>43</v>
       </c>
       <c r="B4" t="s">
         <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
